--- a/FuzzyMsc/App_Data/Tmp/FileUploads/yapay-veriler-3.xlsx
+++ b/FuzzyMsc/App_Data/Tmp/FileUploads/yapay-veriler-3.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,26 +575,24 @@
         <v>1089</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1">
         <v>70</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1">
         <v>40</v>
       </c>
-      <c r="K2" s="1">
-        <v>55</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1">
         <v>120</v>
       </c>
@@ -613,26 +611,24 @@
         <v>1083</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1">
         <v>80</v>
       </c>
       <c r="I3" s="1">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1">
         <v>50</v>
       </c>
-      <c r="K3" s="1">
-        <v>53</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1">
         <v>140</v>
       </c>
@@ -651,20 +647,18 @@
         <v>1073</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1">
         <v>45</v>
       </c>
-      <c r="I4" s="1">
-        <v>48</v>
-      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1">
         <v>130</v>
       </c>
@@ -685,32 +679,30 @@
         <v>1064</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
       </c>
       <c r="G5" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1">
         <v>40</v>
       </c>
       <c r="I5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1">
         <v>10</v>
       </c>
       <c r="K5" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1">
         <v>40</v>
       </c>
-      <c r="M5" s="1">
-        <v>46</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1">
         <v>120</v>
       </c>
@@ -727,26 +719,24 @@
         <v>1053</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>45</v>
       </c>
       <c r="G6" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1">
         <v>38</v>
       </c>
-      <c r="K6" s="1">
-        <v>39</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>100</v>
       </c>
@@ -765,14 +755,12 @@
         <v>1050</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>45</v>
       </c>
-      <c r="G7" s="1">
-        <v>34</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1">
         <v>120</v>
       </c>
@@ -797,7 +785,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +841,7 @@
         <v>1090</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>500</v>
@@ -862,7 +850,7 @@
         <v>140</v>
       </c>
       <c r="H2" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>900</v>
@@ -870,9 +858,7 @@
       <c r="J2" s="1">
         <v>300</v>
       </c>
-      <c r="K2" s="1">
-        <v>30</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1">
         <v>1600</v>
       </c>
@@ -892,7 +878,7 @@
         <v>1087</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>550</v>
@@ -901,7 +887,7 @@
         <v>160</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1">
         <v>950</v>
@@ -909,9 +895,7 @@
       <c r="J3" s="1">
         <v>300</v>
       </c>
-      <c r="K3" s="1">
-        <v>28</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1">
         <v>1500</v>
       </c>
@@ -931,7 +915,7 @@
         <v>1078</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <v>600</v>
@@ -939,9 +923,7 @@
       <c r="G4" s="1">
         <v>180</v>
       </c>
-      <c r="H4" s="1">
-        <v>12</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1">
         <v>1300</v>
       </c>
@@ -964,7 +946,7 @@
         <v>1066</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>550</v>
@@ -972,9 +954,7 @@
       <c r="G5" s="1">
         <v>200</v>
       </c>
-      <c r="H5" s="1">
-        <v>16</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1">
         <v>1400</v>
       </c>
@@ -997,7 +977,7 @@
         <v>1065</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>600</v>
@@ -1006,7 +986,7 @@
         <v>190</v>
       </c>
       <c r="H6" s="1">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1">
         <v>1500</v>
@@ -1014,9 +994,7 @@
       <c r="J6" s="1">
         <v>380</v>
       </c>
-      <c r="K6" s="1">
-        <v>32</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>1850</v>
       </c>
@@ -1036,7 +1014,7 @@
         <v>1060</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>650</v>
@@ -1045,7 +1023,7 @@
         <v>210</v>
       </c>
       <c r="H7" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1">
         <v>1500</v>
@@ -1053,9 +1031,7 @@
       <c r="J7" s="1">
         <v>400</v>
       </c>
-      <c r="K7" s="1">
-        <v>27</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1">
         <v>1800</v>
       </c>
@@ -1075,7 +1051,7 @@
         <v>1056</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>1200</v>
@@ -1084,7 +1060,7 @@
         <v>350</v>
       </c>
       <c r="H8" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>1450</v>
@@ -1092,9 +1068,7 @@
       <c r="J8" s="1">
         <v>380</v>
       </c>
-      <c r="K8" s="1">
-        <v>30</v>
-      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1">
         <v>1780</v>
       </c>
@@ -1114,7 +1088,7 @@
         <v>1052</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>1100</v>
@@ -1123,7 +1097,7 @@
         <v>340</v>
       </c>
       <c r="H9" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1">
         <v>1400</v>
@@ -1131,9 +1105,7 @@
       <c r="J9" s="1">
         <v>360</v>
       </c>
-      <c r="K9" s="1">
-        <v>26</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1">
         <v>1800</v>
       </c>
